--- a/main_data/Tavria products_list.xlsx
+++ b/main_data/Tavria products_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aktiz\PycharmProjects\КЗ\main_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B46F89-455A-48CC-BF6E-A4351EEACDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0E2660-6C2D-4C47-95A4-CCF2721A474E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22905" yWindow="2790" windowWidth="21600" windowHeight="11295" xr2:uid="{8806CB1C-CA7B-421A-99DB-310831829B7E}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Мука</t>
   </si>
   <si>
-    <t>Сир</t>
-  </si>
-  <si>
     <t>Курятина</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">Гречка </t>
+  </si>
+  <si>
+    <t>Бринза</t>
   </si>
 </sst>
 </file>
@@ -420,17 +420,17 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>78</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>67</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>43</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>55</v>
